--- a/data/trans_camb/P16A02-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A02-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 5,03</t>
+          <t>-3,95; 5,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 12,75</t>
+          <t>2,36; 12,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,85; 10,98</t>
+          <t>1,49; 10,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 12,4</t>
+          <t>-1,93; 12,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 9,89</t>
+          <t>-3,68; 9,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,67; 17,13</t>
+          <t>5,57; 17,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 6,61</t>
+          <t>-1,24; 6,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,22; 9,94</t>
+          <t>2,31; 10,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,8; 13,02</t>
+          <t>5,94; 13,03</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-25,7; 48,6</t>
+          <t>-26,88; 51,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,19; 124,99</t>
+          <t>16,02; 124,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,79; 104,25</t>
+          <t>9,15; 108,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 72,49</t>
+          <t>-8,04; 69,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 57,0</t>
+          <t>-14,76; 58,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,88; 103,76</t>
+          <t>22,94; 104,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 48,63</t>
+          <t>-7,14; 49,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,73; 72,32</t>
+          <t>12,97; 74,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>32,75; 94,12</t>
+          <t>32,75; 95,62</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 8,08</t>
+          <t>-3,31; 8,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 7,6</t>
+          <t>-3,4; 7,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 10,45</t>
+          <t>-0,88; 10,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 17,16</t>
+          <t>2,49; 17,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 9,9</t>
+          <t>-2,75; 10,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,31; 15,35</t>
+          <t>2,98; 14,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 9,72</t>
+          <t>1,25; 10,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 6,83</t>
+          <t>-1,55; 6,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,62; 11,07</t>
+          <t>2,39; 10,46</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,46; 61,29</t>
+          <t>-16,91; 67,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,35; 57,11</t>
+          <t>-19,62; 59,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 78,85</t>
+          <t>-4,66; 82,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,05; 88,11</t>
+          <t>9,29; 86,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 50,87</t>
+          <t>-11,33; 52,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,24; 78,52</t>
+          <t>11,56; 73,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,66; 56,3</t>
+          <t>5,29; 60,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 40,11</t>
+          <t>-7,8; 39,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,28; 66,81</t>
+          <t>11,31; 62,13</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,67; 13,12</t>
+          <t>3,88; 12,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,66; 11,8</t>
+          <t>2,92; 11,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 16,46</t>
+          <t>-8,94; 16,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 14,27</t>
+          <t>-4,22; 13,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 23,0</t>
+          <t>1,33; 22,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,58; 32,73</t>
+          <t>15,31; 33,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,67; 12,22</t>
+          <t>3,88; 11,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,89; 12,53</t>
+          <t>4,19; 12,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 19,4</t>
+          <t>-7,66; 19,0</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,21; 114,73</t>
+          <t>26,42; 116,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,74; 105,06</t>
+          <t>16,48; 107,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-46,35; 134,88</t>
+          <t>-55,7; 134,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 78,42</t>
+          <t>-14,91; 76,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,9; 118,94</t>
+          <t>2,93; 118,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>50,25; 182,58</t>
+          <t>52,87; 178,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,82; 93,14</t>
+          <t>22,02; 89,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>21,16; 92,68</t>
+          <t>23,47; 92,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-36,74; 131,83</t>
+          <t>-42,37; 127,08</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,5; 6,93</t>
+          <t>1,01; 7,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 6,59</t>
+          <t>0,56; 7,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,92; 16,19</t>
+          <t>8,71; 15,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,91; 13,16</t>
+          <t>3,55; 12,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,71; 11,42</t>
+          <t>2,62; 11,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,52; 52,71</t>
+          <t>15,33; 52,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,25; 8,55</t>
+          <t>3,13; 8,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,91; 7,99</t>
+          <t>2,63; 7,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,79; 39,85</t>
+          <t>13,6; 38,24</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,89; 46,89</t>
+          <t>5,92; 50,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,78; 44,76</t>
+          <t>2,63; 47,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>50,44; 110,44</t>
+          <t>49,65; 105,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,23; 68,47</t>
+          <t>14,46; 64,54</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,65; 56,96</t>
+          <t>11,17; 58,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>67,99; 255,26</t>
+          <t>67,01; 254,84</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,21; 50,1</t>
+          <t>15,08; 49,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>15,03; 46,52</t>
+          <t>13,29; 46,26</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>73,6; 222,48</t>
+          <t>72,1; 213,3</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 8,54</t>
+          <t>-1,02; 8,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 9,67</t>
+          <t>-0,95; 9,14</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,36; 18,72</t>
+          <t>7,47; 18,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,75; 16,52</t>
+          <t>5,99; 16,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,86; 14,03</t>
+          <t>4,1; 14,36</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,88; 23,76</t>
+          <t>4,91; 23,54</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,06; 11,95</t>
+          <t>4,3; 11,91</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,65; 10,03</t>
+          <t>2,58; 10,04</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>8,89; 20,24</t>
+          <t>8,84; 20,22</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 76,73</t>
+          <t>-6,69; 77,57</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 88,24</t>
+          <t>-5,53; 80,15</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>43,74; 164,91</t>
+          <t>42,76; 166,15</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>19,74; 69,79</t>
+          <t>20,29; 71,4</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>12,89; 57,08</t>
+          <t>13,39; 61,26</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>20,83; 97,73</t>
+          <t>18,88; 93,54</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>16,69; 59,81</t>
+          <t>17,48; 59,85</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>10,95; 50,46</t>
+          <t>10,16; 50,59</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>39,25; 100,73</t>
+          <t>38,64; 99,86</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 4,96</t>
+          <t>-3,1; 5,2</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,45; 12,19</t>
+          <t>2,3; 12,56</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,44; 16,32</t>
+          <t>0,69; 17,75</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>7,43; 14,95</t>
+          <t>7,44; 14,86</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,34; 11,6</t>
+          <t>4,02; 11,92</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>9,69; 17,4</t>
+          <t>9,63; 17,91</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,23; 12,96</t>
+          <t>6,14; 12,82</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>4,01; 10,8</t>
+          <t>3,66; 10,43</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>7,41; 14,87</t>
+          <t>7,5; 14,97</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-39,73; 115,37</t>
+          <t>-38,97; 125,73</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>16,18; 280,17</t>
+          <t>27,16; 306,76</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 378,26</t>
+          <t>0,4; 333,35</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>27,77; 63,68</t>
+          <t>27,88; 63,32</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>16,5; 50,95</t>
+          <t>15,53; 52,33</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>36,5; 74,28</t>
+          <t>35,9; 76,94</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>27,29; 64,8</t>
+          <t>26,39; 64,17</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>17,54; 54,81</t>
+          <t>16,32; 52,37</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>32,77; 74,21</t>
+          <t>32,92; 74,23</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,29; 5,8</t>
+          <t>2,0; 5,75</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>3,05; 6,79</t>
+          <t>3,24; 6,6</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,28; 11,28</t>
+          <t>3,52; 11,29</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>7,31; 11,86</t>
+          <t>7,41; 11,84</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>4,94; 9,56</t>
+          <t>4,88; 9,36</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>13,54; 29,53</t>
+          <t>13,87; 28,53</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>5,46; 8,33</t>
+          <t>5,57; 8,41</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>4,81; 7,68</t>
+          <t>4,54; 7,51</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>10,37; 20,91</t>
+          <t>10,43; 19,42</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>15,37; 44,25</t>
+          <t>13,91; 44,38</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>20,5; 51,53</t>
+          <t>21,68; 50,36</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>26,0; 86,22</t>
+          <t>26,99; 84,42</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>29,14; 52,39</t>
+          <t>29,29; 51,62</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>19,77; 42,34</t>
+          <t>19,31; 40,83</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>55,55; 126,11</t>
+          <t>56,9; 120,47</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>27,76; 45,75</t>
+          <t>28,19; 46,09</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>24,46; 41,89</t>
+          <t>22,93; 41,16</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>52,71; 111,32</t>
+          <t>53,65; 102,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A02-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A02-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
